--- a/security_words.xlsx
+++ b/security_words.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A640"/>
+  <dimension ref="A1:A706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>access control list (acl)</t>
+          <t xml:space="preserve">access control list </t>
         </is>
       </c>
     </row>
@@ -520,4394 +520,4856 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>active attack</t>
+          <t>acl</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>active content</t>
+          <t>active attack</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>activity monitors</t>
+          <t>active content</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>address resolution protocol (arp)</t>
+          <t>activity monitors</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>advanced encryption standard (aes)</t>
+          <t xml:space="preserve">address resolution protocol </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>advanced persistent threat</t>
+          <t xml:space="preserve">advanced encryption standard </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>adversary</t>
+          <t>advanced persistent threat</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>air gap</t>
+          <t>adversary</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>alert</t>
+          <t>aes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>algorithm</t>
+          <t>air gap</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>all source intelligence</t>
+          <t>alert</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>allowlist</t>
+          <t>algorithm</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>analyze</t>
+          <t>all source intelligence</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>antispyware software</t>
+          <t>allowlist</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>antivirus software</t>
+          <t>analyze</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>applet</t>
+          <t>antispyware software</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>arpanet</t>
+          <t>antivirus software</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>asset</t>
+          <t>applet</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>asymmetric cryptography</t>
+          <t>arp</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>asymmetric warfare</t>
+          <t>arpanet</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>asset</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>attack method</t>
+          <t>asymmetric cryptography</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>attack mode</t>
+          <t>asymmetric warfare</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>attack path</t>
+          <t>attack</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>attack pattern</t>
+          <t>attack method</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>attack signature</t>
+          <t>attack mode</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>attack surface</t>
+          <t>attack path</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>attacker</t>
+          <t>attack pattern</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>auditing</t>
+          <t>attack signature</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>authenticate</t>
+          <t>attack surface</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>authentication</t>
+          <t>attacker</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>authenticity</t>
+          <t>auditing</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>authorization</t>
+          <t>authenticate</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>autonomous system</t>
+          <t>authentication</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>availability</t>
+          <t>authenticity</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>backdoor</t>
+          <t>authorization</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bandwidth</t>
+          <t>autonomous system</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>banner</t>
+          <t>availability</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>basic authentication</t>
+          <t>backdoor</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>bastion host</t>
+          <t>bandwidth</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>behavior monitoring</t>
+          <t>banner</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>bind</t>
+          <t>basic authentication</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>biometrics</t>
+          <t>bastion host</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bit</t>
+          <t>bcp</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>block cipher</t>
+          <t>behavior monitoring</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>blocklist</t>
+          <t>bgp</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>blue team</t>
+          <t>bia</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>blue team</t>
+          <t>bind</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>boot record infector</t>
+          <t>biometrics</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>border gateway protocol (bgp)</t>
+          <t>bit</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>block cipher</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bot herder</t>
+          <t>blocklist</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>bot master</t>
+          <t>blue team</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>botnet</t>
+          <t>blue team</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>boot record infector</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>british standard 7799</t>
+          <t xml:space="preserve">border gateway protocol </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>broadcast</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>broadcast address</t>
+          <t>bot herder</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>browser</t>
+          <t>bot master</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>brute force</t>
+          <t>botnet</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>buffer overflow</t>
+          <t>bridge</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bug</t>
+          <t>british standard 7799</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>build security in</t>
+          <t>broadcast</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>business continuity plan (bcp)</t>
+          <t>broadcast address</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>business impact analysis (bia)</t>
+          <t>browser</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>byte</t>
+          <t>brute force</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>cache</t>
+          <t>buffer overflow</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>cache cramming</t>
+          <t>bug</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cache poisoning</t>
+          <t>build security in</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>call admission control (cac)</t>
+          <t xml:space="preserve">business continuity plan </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>capability</t>
+          <t xml:space="preserve">business impact analysis </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>cell</t>
+          <t>byte</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>certificate-based authentication</t>
+          <t>cac</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>cgi</t>
+          <t>cache</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>chain of custody</t>
+          <t>cache cramming</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>challenge-handshake authentication protocol (chap)</t>
+          <t>cache poisoning</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t xml:space="preserve">call admission control </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cipher</t>
+          <t>capability</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ciphertext</t>
+          <t>cell</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>circuit switched network</t>
+          <t>cert</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>client</t>
+          <t>certificate-based authentication</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>cloud computing</t>
+          <t>cgi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cold/warm/hot disaster recovery site</t>
+          <t>chain of custody</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>collect &amp; operate</t>
+          <t xml:space="preserve">challenge-handshake authentication protocol </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>collection operations</t>
+          <t>chap</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>collision</t>
+          <t>checksum</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>competitive intelligence</t>
+          <t>cipher</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>computer emergency response team (cert)</t>
+          <t>ciphertext</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>computer forensics</t>
+          <t>circuit switched network</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>computer network</t>
+          <t>cisco</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>computer network defense</t>
+          <t>cisco</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>computer network defense analysis</t>
+          <t>cisco</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>computer network defense infrastructure support</t>
+          <t>client</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>computer security incident</t>
+          <t>cloud computing</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>confidentiality</t>
+          <t>cold/warm/hot disaster recovery site</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>configuration management</t>
+          <t>collect &amp; operate</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>consequence</t>
+          <t>collection operations</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>continuity of operations plan</t>
+          <t>collision</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>competitive intelligence</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>corruption</t>
+          <t xml:space="preserve">computer emergency response team </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>cost benefit analysis</t>
+          <t>computer forensics</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>countermeasure</t>
+          <t>computer network</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>covert channels</t>
+          <t>computer network defense</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>crimeware</t>
+          <t>computer network defense analysis</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>critical infrastructure</t>
+          <t>computer network defense infrastructure support</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>critical infrastructure and key resources</t>
+          <t>computer security incident</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>cron</t>
+          <t>confidentiality</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>crossover cable</t>
+          <t>configuration management</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>cryptanalysis</t>
+          <t>consequence</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>cryptographic algorithm</t>
+          <t>continuity of operations plan</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>cryptographic algorithm or hash</t>
+          <t>cookie</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>cryptography</t>
+          <t>corruption</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>cryptology</t>
+          <t>cost benefit analysis</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>customer service and technical support</t>
+          <t>countermeasure</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>cut-through</t>
+          <t>covert channels</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>cyber ecosystem</t>
+          <t>crc</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>cyber exercise</t>
+          <t>crimeware</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>cyber incident</t>
+          <t>critical infrastructure</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>cyber incident response plan</t>
+          <t>critical infrastructure and key resources</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>cyber infrastructure</t>
+          <t>cron</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>cyber operations</t>
+          <t>crossover cable</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>cyber operations planning</t>
+          <t>cryptanalysis</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>cyber threat intelligence (cti)</t>
+          <t>cryptographic algorithm</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>cybersecurity</t>
+          <t>cryptographic algorithm or hash</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cyclic redundancy check (crc)</t>
+          <t>cryptography</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>daemon</t>
+          <t>cryptology</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>data administration</t>
+          <t>cti</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>data aggregation</t>
+          <t>customer service and technical support</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>data breach</t>
+          <t>cut-through</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>data custodian</t>
+          <t>cyber ecosystem</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>data encryption standard (des)</t>
+          <t>cyber exercise</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>data integrity</t>
+          <t>cyber incident</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>data leakage</t>
+          <t>cyber incident response plan</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>data loss</t>
+          <t>cyber infrastructure</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>data loss prevention</t>
+          <t>cyber operations</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>data mining</t>
+          <t>cyber operations planning</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>data owner</t>
+          <t xml:space="preserve">cyber threat intelligence </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>data spill</t>
+          <t>cybersecurity</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>data theft</t>
+          <t xml:space="preserve">cyclic redundancy check </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>data warehousing</t>
+          <t>dac</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>datagram</t>
+          <t>daemon</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>day zero</t>
+          <t>data administration</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>decapsulation</t>
+          <t>data aggregation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>decipher</t>
+          <t>data breach</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>decode</t>
+          <t>data custodian</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>decrypt</t>
+          <t xml:space="preserve">data encryption standard </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>decryption</t>
+          <t>data integrity</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>defacement</t>
+          <t>data leakage</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>defense in-depth</t>
+          <t>data loss</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>demilitarized zone (dmz)</t>
+          <t>data loss prevention</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>denial of service</t>
+          <t>data mining</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>designed-in security</t>
+          <t>data owner</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>dictionary attack</t>
+          <t>data spill</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>diffie-hellman</t>
+          <t>data theft</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>digest authentication</t>
+          <t>data warehousing</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>digital certificate</t>
+          <t>datagram</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>digital envelope</t>
+          <t>day zero</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>digital forensics</t>
+          <t>decapsulation</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>digital rights management</t>
+          <t>decipher</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>digital signature</t>
+          <t>decode</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>digital signature algorithm (dsa)</t>
+          <t>decrypt</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>digital signature standard (dss)</t>
+          <t>decryption</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>disassembly</t>
+          <t>defacement</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>disaster recovery plan (drp)</t>
+          <t>defense in-depth</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>discretionary access control (dac)</t>
+          <t xml:space="preserve">demilitarized zone </t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>disruption</t>
+          <t>denial of service</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>distance vector</t>
+          <t>des</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>distributed denial of service</t>
+          <t>designed-in security</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>distributed scans</t>
+          <t>dictionary attack</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>diffie-hellman</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>domain hijacking</t>
+          <t>digest authentication</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>domain name</t>
+          <t>digital certificate</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>domain name system (dns)</t>
+          <t>digital envelope</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>due care</t>
+          <t>digital forensics</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>due diligence</t>
+          <t>digital rights management</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>dumpsec</t>
+          <t>digital signature</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>dumpster diving</t>
+          <t xml:space="preserve">digital signature algorithm </t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>dynamic attack surface</t>
+          <t xml:space="preserve">digital signature standard </t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>dynamic link library</t>
+          <t>disassembly</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>dynamic routing protocol</t>
+          <t xml:space="preserve">disaster recovery plan </t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>eavesdropping</t>
+          <t xml:space="preserve">discretionary access control </t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>echo reply</t>
+          <t>disruption</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>echo request</t>
+          <t>distance vector</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>distributed denial of service</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>egress filtering</t>
+          <t>distributed scans</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>electronic signature</t>
+          <t>dmz</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>emanations analysis</t>
+          <t>dns</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>encapsulation</t>
+          <t>domain</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>encipher</t>
+          <t>domain hijacking</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>encode</t>
+          <t>domain name</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>encrypt</t>
+          <t xml:space="preserve">domain name system </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>encryption</t>
+          <t>drp</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>enterprise risk management</t>
+          <t>dsa</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ephemeral port</t>
+          <t>dss</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>escrow passwords</t>
+          <t>due care</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ethernet</t>
+          <t>due diligence</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>dumpsec</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>exfiltration</t>
+          <t>dumpster diving</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>exploit</t>
+          <t>dynamic attack surface</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>exploitation analysis</t>
+          <t>dynamic link library</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>exponential backoff algorithm</t>
+          <t>dynamic routing protocol</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>exposure</t>
+          <t>eap</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>extended acls (cisco)</t>
+          <t>eavesdropping</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>extensible authentication protocol (eap)</t>
+          <t>echo reply</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>exterior gateway protocol (egp)</t>
+          <t>echo request</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>failure</t>
+          <t>education and training</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>false rejects</t>
+          <t>egp</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>fast file system</t>
+          <t>egress filtering</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>fast flux</t>
+          <t>electronic signature</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>fault line attacks</t>
+          <t>emanations analysis</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>file transfer protocol (ftp)</t>
+          <t>encapsulation</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>filter</t>
+          <t>encipher</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>filtering router</t>
+          <t>encode</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>finger</t>
+          <t>encrypt</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>fingerprinting</t>
+          <t>encryption</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>firewall</t>
+          <t>enterprise risk management</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>flooding</t>
+          <t>ephemeral port</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>forensics</t>
+          <t>escrow passwords</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>ethernet</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>fork bomb</t>
+          <t>event</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>form-based authentication</t>
+          <t>exfiltration</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>forward lookup</t>
+          <t>exploit</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>forward proxy</t>
+          <t>exploitation analysis</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>fragment offset</t>
+          <t>exponential backoff algorithm</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>fragment overlap attack</t>
+          <t>exposure</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>fragmentation</t>
+          <t xml:space="preserve">extended acls </t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>frames</t>
+          <t xml:space="preserve">extensible authentication protocol </t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>full duplex</t>
+          <t xml:space="preserve">exterior gateway protocol </t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fully-qualified domain name</t>
+          <t>failure</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>fuzzing</t>
+          <t>false rejects</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>gateway</t>
+          <t>fast file system</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>gethostbyaddr</t>
+          <t>fast flux</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>gethostbyname</t>
+          <t>fault line attacks</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>gnu</t>
+          <t xml:space="preserve">file transfer protocol </t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>gnutella</t>
+          <t>filter</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>hacker</t>
+          <t>filtering router</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>hardening</t>
+          <t>finger</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>hash function</t>
+          <t>fingerprinting</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>hash functions</t>
+          <t>firewall</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>hash value</t>
+          <t>flooding</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>hashing</t>
+          <t>forensics</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>hazard</t>
+          <t>forest</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>header</t>
+          <t>fork bomb</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>hijack attack</t>
+          <t>form-based authentication</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>honey client</t>
+          <t>forward lookup</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>honey pot</t>
+          <t>forward proxy</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>honeymonkey</t>
+          <t>fragment offset</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>hops</t>
+          <t>fragment overlap attack</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>host</t>
+          <t>fragmentation</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>host-based id</t>
+          <t>frames</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>http proxy</t>
+          <t>ftp</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https</t>
+          <t>full duplex</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>hub</t>
+          <t>fully-qualified domain name</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>hybrid attack</t>
+          <t>fuzzing</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>hybrid encryption</t>
+          <t>gateway</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>hyperlink</t>
+          <t>gethostbyaddr</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>hypertext markup language (html)</t>
+          <t>gethostbyname</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>hypertext transfer protocol (http)</t>
+          <t>gnu</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ict supply chain threat</t>
+          <t>gnutella</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>hacker</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>identity and access management</t>
+          <t>hardening</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>hash function</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>incident</t>
+          <t>hash functions</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>incident handling</t>
+          <t>hash value</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>incident management</t>
+          <t>hashing</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>incident response</t>
+          <t>hazard</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>incident response plan</t>
+          <t>header</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>incremental backups</t>
+          <t>hijack attack</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>indicator</t>
+          <t>honey client</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>industrial control system</t>
+          <t>honey pot</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>inetd (xinetd)</t>
+          <t>honeymonkey</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>inference attack</t>
+          <t>hops</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>information and communication(s) technology</t>
+          <t>host</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>information assurance</t>
+          <t>host-based id</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>information assurance compliance</t>
+          <t>html</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>information security policy</t>
+          <t>http</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>information sharing</t>
+          <t>http proxy</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>information system resilience</t>
+          <t>https</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>information systems security operations</t>
+          <t>hub</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>information technology</t>
+          <t>hybrid attack</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>information warfare</t>
+          <t>hybrid encryption</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ingress filtering</t>
+          <t>hyperlink</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>input validation attacks</t>
+          <t xml:space="preserve">hypertext markup language </t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>inside( r) threat</t>
+          <t xml:space="preserve">hypertext transfer protocol </t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>integrated risk management</t>
+          <t>icmp</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>integrity</t>
+          <t>ict supply chain threat</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>integrity star property</t>
+          <t>identity</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>intent</t>
+          <t>identity and access management</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>ietf</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>internet control message protocol (icmp)</t>
+          <t>imap</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>internet engineering task force (ietf)</t>
+          <t>impact</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>internet message access protocol (imap)</t>
+          <t>incident</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>internet protocol (ip)</t>
+          <t>incident handling</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>internet protocol security (ipsec)</t>
+          <t>incident management</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>internet standard</t>
+          <t>incident response</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>interoperability</t>
+          <t>incident response plan</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>interrupt</t>
+          <t>incremental backups</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>intranet</t>
+          <t>indicator</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>intrusion</t>
+          <t>industrial control system</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>intrusion detection</t>
+          <t xml:space="preserve">inetd </t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>investigate</t>
+          <t>inference attack</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>information and communication(s) technology</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ip address</t>
+          <t>information assurance</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ip flood</t>
+          <t>information assurance compliance</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ip forwarding</t>
+          <t>information security policy</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ip spoofing</t>
+          <t>information sharing</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>iso</t>
+          <t>information system resilience</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>issue-specific policy</t>
+          <t>information systems security operations</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>it asset</t>
+          <t>information technology</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>itu-t</t>
+          <t>information warfare</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>jitter</t>
+          <t>ingress filtering</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>jump bag</t>
+          <t>input validation attacks</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>kerberos</t>
+          <t>inside( r) threat</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>kernel</t>
+          <t>integrated risk management</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>knowledge management</t>
+          <t>integrity</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>lattice techniques</t>
+          <t>integrity star property</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>layer 2 forwarding protocol (l2f)</t>
+          <t>intent</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>layer 2 tunneling protocol (l2tp)</t>
+          <t>internet</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>least privilege</t>
+          <t xml:space="preserve">internet control message protocol </t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>legal advice and advocacy</t>
+          <t xml:space="preserve">internet engineering task force </t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>legion</t>
+          <t xml:space="preserve">internet message access protocol </t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>lightweight directory access protocol (ldap)</t>
+          <t xml:space="preserve">internet protocol </t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>link state</t>
+          <t xml:space="preserve">internet protocol security </t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>list based access control</t>
+          <t>internet standard</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>loadable kernel modules (lkm)</t>
+          <t>interoperability</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>log clipping</t>
+          <t>interrupt</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>logic bombs</t>
+          <t>intranet</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>logic gate</t>
+          <t>intrusion</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>loopback address</t>
+          <t>intrusion detection</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>mac address</t>
+          <t>investigate</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>machine learning and evolution</t>
+          <t>investigation</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>macro virus</t>
+          <t>ip</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>malicious applet</t>
+          <t>ip address</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>malicious code</t>
+          <t>ip flood</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>malicious logic</t>
+          <t>ip forwarding</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>malware</t>
+          <t>ip spoofing</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>mandatory access control (mac)</t>
+          <t>ips</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>masquerade attack</t>
+          <t>ipsec</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>md5</t>
+          <t>iso</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>measures of effectiveness (moe)</t>
+          <t>issue-specific policy</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>mitigation</t>
+          <t>it asset</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>monoculture</t>
+          <t>itu-t</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>morris worm</t>
+          <t>jitter</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>moving target defense</t>
+          <t>jump bag</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>multi-cast</t>
+          <t>kerberos</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>multi-homed</t>
+          <t>kernel</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>multiplexing</t>
+          <t>knowledge management</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>nat</t>
+          <t>l2f</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>national institute of standards and technology (nist)</t>
+          <t>l2tp</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>natural disaster</t>
+          <t>lattice techniques</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>netmask</t>
+          <t xml:space="preserve">layer 2 forwarding protocol </t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>network address translation</t>
+          <t xml:space="preserve">layer 2 tunneling protocol </t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>network mapping</t>
+          <t>ldap</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>network resilience</t>
+          <t>least privilege</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>network services</t>
+          <t>legal advice and advocacy</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>network taps</t>
+          <t>legion</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>network-based ids</t>
+          <t xml:space="preserve">lightweight directory access protocol </t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>non-printable character</t>
+          <t>link state</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>non-repudiation</t>
+          <t>list based access control</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>null session</t>
+          <t>lkm</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>object</t>
+          <t xml:space="preserve">loadable kernel modules </t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>octet</t>
+          <t>log clipping</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>one-way encryption</t>
+          <t>logic bombs</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>one-way function</t>
+          <t>logic gate</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>open shortest path first (ospf)</t>
+          <t>loopback address</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>operate &amp; maintain</t>
+          <t>mac</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>operational exercise</t>
+          <t>mac address</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>operations technology</t>
+          <t>machine learning and evolution</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>osi</t>
+          <t>macro virus</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>osi layers</t>
+          <t>malicious applet</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>outside( r) threat</t>
+          <t>malicious code</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>overload</t>
+          <t>malicious logic</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>oversight &amp; development</t>
+          <t>malware</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>packet</t>
+          <t xml:space="preserve">mandatory access control </t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>packet switched network</t>
+          <t>masquerade attack</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>md5</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>passive attack</t>
+          <t xml:space="preserve">measures of effectiveness </t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>password</t>
+          <t>mitigation</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>password authentication protocol (pap)</t>
+          <t>moe</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>password cracking</t>
+          <t>monoculture</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>password sniffing</t>
+          <t>morris worm</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>patch</t>
+          <t>moving target defense</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>patching</t>
+          <t>multi-cast</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>payload</t>
+          <t>multi-homed</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>pen test</t>
+          <t>multiplexing</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>penetration</t>
+          <t>nat</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>penetration testing</t>
+          <t xml:space="preserve">national institute of standards and technology </t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>permutation</t>
+          <t>natural disaster</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>personal firewalls</t>
+          <t>netmask</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>personal identifying information / personally identifiable information</t>
+          <t>network address translation</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>pharming</t>
+          <t>network mapping</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>phishing</t>
+          <t>network resilience</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ping of death</t>
+          <t>network services</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ping scan</t>
+          <t>network taps</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ping sweep</t>
+          <t>network-based ids</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>plaintext</t>
+          <t>nist</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>point-to-point protocol (ppp)</t>
+          <t>non-printable character</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>point-to-point tunneling protocol (pptp)</t>
+          <t>non-repudiation</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>poison reverse</t>
+          <t>null session</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>polyinstantiation</t>
+          <t>object</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>polymorphism</t>
+          <t>octet</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>one-way encryption</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>port scan</t>
+          <t>one-way function</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>possession</t>
+          <t xml:space="preserve">open shortest path first </t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>post office protocol, version 3 (pop3)</t>
+          <t>operate &amp; maintain</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>practical extraction and reporting language (perl)</t>
+          <t>operational exercise</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>preamble</t>
+          <t>operations technology</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>precursor</t>
+          <t>osi</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>preparedness</t>
+          <t>osi</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>pretty good privacy (pgp)tm</t>
+          <t>osi layers</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>privacy</t>
+          <t>ospf</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>private addressing</t>
+          <t>outside( r) threat</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>private key</t>
+          <t>overload</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>program infector</t>
+          <t>oversight &amp; development</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>program policy</t>
+          <t>packet</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>promiscuous mode</t>
+          <t>packet switched network</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>proprietary information</t>
+          <t>pap</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>protect &amp; defend</t>
+          <t>partitions</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>protocol</t>
+          <t>passive attack</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>protocol stacks (osi)</t>
+          <t>password</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>proxy server</t>
+          <t xml:space="preserve">password authentication protocol </t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>public key</t>
+          <t>password cracking</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>public key cryptography</t>
+          <t>password sniffing</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>public key encryption</t>
+          <t>patch</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>public key infrastructure</t>
+          <t>patching</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>public key infrastructure (pki)</t>
+          <t>payload</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>public-key forward secrecy (pfs)</t>
+          <t>pen test</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>qaz</t>
+          <t>penetration</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>race condition</t>
+          <t>penetration testing</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>radiation monitoring</t>
+          <t>perl</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ransomware</t>
+          <t>permutation</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>reconnaissance</t>
+          <t>personal firewalls</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>recovery</t>
+          <t>personal identifying information / personally identifiable information</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>red team</t>
+          <t>pfs</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>red team exercise</t>
+          <t>pharming</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>redundancy</t>
+          <t>phishing</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>reflexive acls (cisco)</t>
+          <t>ping of death</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>registry</t>
+          <t>ping scan</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>regression analysis</t>
+          <t>ping sweep</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>request for comment (rfc)</t>
+          <t>pki</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>resilience</t>
+          <t>plaintext</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>resource exhaustion</t>
+          <t xml:space="preserve">point-to-point protocol </t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>response</t>
+          <t xml:space="preserve">point-to-point tunneling protocol </t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>response plan</t>
+          <t>poison reverse</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>reverse address resolution protocol (rarp)</t>
+          <t>polyinstantiation</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>reverse engineering</t>
+          <t>polymorphism</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>reverse lookup</t>
+          <t>pop3</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>reverse proxy</t>
+          <t>port</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>port scan</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>risk analysis</t>
+          <t>possession</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>risk assessment</t>
+          <t xml:space="preserve">post office protocol, version 3 </t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>risk averse</t>
+          <t>ppp</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>risk management</t>
+          <t>pptp</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>risk mitigation</t>
+          <t xml:space="preserve">practical extraction and reporting language </t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>risk-based data management</t>
+          <t>preamble</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>rivest-shamir-adleman (rsa)</t>
+          <t>precursor</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>role based access control</t>
+          <t>preparedness</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>root</t>
+          <t>pretty good privacy (pgp)tm</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>rootkit</t>
+          <t>privacy</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>router</t>
+          <t>private addressing</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>routing information protocol (rip)</t>
+          <t>private key</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>routing loop</t>
+          <t>program infector</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>rpc scans</t>
+          <t>program policy</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>rule set based access control (rsbac)</t>
+          <t>promiscuous mode</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>s/key</t>
+          <t>proprietary information</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>protect &amp; defend</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>scavenging</t>
+          <t>protocol</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>secret key</t>
+          <t xml:space="preserve">protocol stacks </t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>secure electronic transactions (set)</t>
+          <t>proxy server</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>secure shell (ssh)</t>
+          <t>public key</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>secure sockets layer (ssl)</t>
+          <t>public key cryptography</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>securely provision</t>
+          <t>public key encryption</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>security automation</t>
+          <t>public key infrastructure</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>security incident</t>
+          <t xml:space="preserve">public key infrastructure </t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>security policy</t>
+          <t xml:space="preserve">public-key forward secrecy </t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>security program management</t>
+          <t>qaz</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>segment</t>
+          <t>race condition</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>sensitive information</t>
+          <t>radiation monitoring</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>separation of duties</t>
+          <t>ransomware</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>server</t>
+          <t>rarp</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>session</t>
+          <t>reconnaissance</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>session hijacking</t>
+          <t>recovery</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>session key</t>
+          <t>red team</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>sha1</t>
+          <t>red team exercise</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>shadow password files</t>
+          <t>redundancy</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>share</t>
+          <t xml:space="preserve">reflexive acls </t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>registry</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>signals analysis</t>
+          <t>regression analysis</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>signature</t>
+          <t xml:space="preserve">request for comment </t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>simple integrity property</t>
+          <t>resilience</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>simple network management protocol (snmp)</t>
+          <t>resource exhaustion</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>simple security property</t>
+          <t>response</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>situational awareness</t>
+          <t>response plan</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>smartcard</t>
+          <t xml:space="preserve">reverse address resolution protocol </t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>smurf</t>
+          <t>reverse engineering</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>sniffer</t>
+          <t>reverse lookup</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>sniffing</t>
+          <t>reverse proxy</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>social engineering</t>
+          <t>rfc</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>socket</t>
+          <t>rip</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>socket pair</t>
+          <t>risk</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>socks</t>
+          <t>risk analysis</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>risk assessment</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>software assurance</t>
+          <t>risk averse</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>software assurance and security engineering</t>
+          <t>risk management</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>source port</t>
+          <t>risk mitigation</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>spam</t>
+          <t>risk-based data management</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>spanning port</t>
+          <t xml:space="preserve">rivest-shamir-adleman </t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>spillage</t>
+          <t>role based access control</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>split horizon</t>
+          <t>root</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>split key</t>
+          <t>rootkit</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>spoof</t>
+          <t>router</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>spoofing</t>
+          <t xml:space="preserve">routing information protocol </t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>spyware</t>
+          <t>routing loop</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>sql injection</t>
+          <t>rpc scans</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>stack mashing</t>
+          <t>rsa</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>standard acls (cisco)</t>
+          <t>rsbac</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>star property</t>
+          <t xml:space="preserve">rule set based access control </t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>state machine</t>
+          <t>s/key</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>stateful inspection</t>
+          <t>safety</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>static host tables</t>
+          <t>scavenging</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>static routing</t>
+          <t>secret key</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>stealthing</t>
+          <t xml:space="preserve">secure electronic transactions </t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>steganalysis</t>
+          <t xml:space="preserve">secure shell </t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>steganography</t>
+          <t xml:space="preserve">secure sockets layer </t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>stimulus</t>
+          <t>securely provision</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>store-and-forward</t>
+          <t>security automation</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>straight-through cable</t>
+          <t>security incident</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>strategic planning and policy development</t>
+          <t>security policy</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>stream cipher</t>
+          <t>security program management</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>strong star property</t>
+          <t>segment</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>sub network</t>
+          <t>sensitive information</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>separation of duties</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>subnet mask</t>
+          <t>server</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>supervisory control and data acquisition</t>
+          <t>session</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>supply chain</t>
+          <t>session hijacking</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>supply chain risk management</t>
+          <t>session key</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>switch</t>
+          <t>set</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>switched network</t>
+          <t>sha1</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>symbolic links</t>
+          <t>shadow password files</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>symmetric cryptography</t>
+          <t>share</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>symmetric encryption algorithm</t>
+          <t>shell</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>symmetric key</t>
+          <t>signals analysis</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>syn flood</t>
+          <t>signature</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>synchronization</t>
+          <t>simple integrity property</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>syslog</t>
+          <t xml:space="preserve">simple network management protocol </t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>system administration</t>
+          <t>simple security property</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>system integrity</t>
+          <t>situational awareness</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>system security officer (sso)</t>
+          <t>smartcard</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>system-specific policy</t>
+          <t>smurf</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>systems development</t>
+          <t>sniffer</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>systems requirements planning</t>
+          <t>sniffing</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>systems security analysis</t>
+          <t>snmp</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>systems security architecture</t>
+          <t>social engineering</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t1, t3</t>
+          <t>socket</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>tabletop exercise</t>
+          <t>socket pair</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>tailored trustworthy space</t>
+          <t>socks</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>tamper</t>
+          <t>software</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>targets</t>
+          <t>software assurance</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>tcp fingerprinting</t>
+          <t>software assurance and security engineering</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>tcp full open scan</t>
+          <t>source port</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>tcp half open scan</t>
+          <t>spam</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>tcp wrapper</t>
+          <t>spanning port</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>tcp/ip</t>
+          <t>spillage</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>tcpdump</t>
+          <t>split horizon</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>technology research and development</t>
+          <t>split key</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>telnet</t>
+          <t>spoof</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>test and evaluation</t>
+          <t>spoofing</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>spyware</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>threat actor</t>
+          <t>sql injection</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>threat agent</t>
+          <t>ssh</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>threat analysis</t>
+          <t>ssl</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>threat assessment</t>
+          <t>sso</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>threat model</t>
+          <t>stack mashing</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>threat vector</t>
+          <t xml:space="preserve">standard acls </t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ticket</t>
+          <t>star property</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>time to live</t>
+          <t>state machine</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>tiny fragment attack</t>
+          <t>stateful inspection</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>token ring</t>
+          <t>static host tables</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>token-based access control</t>
+          <t>static routing</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>token-based devices</t>
+          <t>stealthing</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>topology</t>
+          <t>steganalysis</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>traceroute (tracert.exe)</t>
+          <t>steganography</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>traffic light protocol</t>
+          <t>stimulus</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>transmission control protocol (tcp)</t>
+          <t>store-and-forward</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>transport layer security (tls)</t>
+          <t>straight-through cable</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>triple des</t>
+          <t>strategic planning and policy development</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>triple-wrapped</t>
+          <t>stream cipher</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>trojan horse</t>
+          <t>strong star property</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>trunking</t>
+          <t>sub network</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>subject</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>trusted ports</t>
+          <t>subnet mask</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>tunnel</t>
+          <t>supervisory control and data acquisition</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>udp scan</t>
+          <t>supply chain</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>unauthorized access</t>
+          <t>supply chain risk management</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>unicast</t>
+          <t>switch</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>uniform resource identifier (uri)</t>
+          <t>switched network</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>uniform resource locator (url)</t>
+          <t>symbolic links</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>unix</t>
+          <t>symmetric cryptography</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>unprotected share</t>
+          <t>symmetric encryption algorithm</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>symmetric key</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>user contingency plan</t>
+          <t>syn flood</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>user datagram protocol (udp)</t>
+          <t>synchronization</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>virtual private network (vpn)</t>
+          <t>syslog</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>virus</t>
+          <t>system administration</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>voice firewall</t>
+          <t>system integrity</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>voice intrusion prevention system (ips)</t>
+          <t xml:space="preserve">system security officer </t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>vulnerability</t>
+          <t>system-specific policy</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>vulnerability assessment and management</t>
+          <t>systems development</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>war chalking</t>
+          <t>systems requirements planning</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>war dialer</t>
+          <t>systems security analysis</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>war dialing</t>
+          <t>systems security architecture</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>war driving</t>
+          <t>t1, t3</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>weakness</t>
+          <t>tabletop exercise</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>web of trust</t>
+          <t>tailored trustworthy space</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>web server</t>
+          <t>tamper</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>white team</t>
+          <t>targets</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>whois</t>
+          <t>tcp</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>windowing</t>
+          <t>tcp fingerprinting</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>windump</t>
+          <t>tcp full open scan</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>wired equivalent privacy (wep)</t>
+          <t>tcp half open scan</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>wireless application protocol</t>
+          <t>tcp wrapper</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>wiretapping</t>
+          <t>tcp/ip</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>work factor</t>
+          <t>tcpdump</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>world wide web ("the web", www, w3)</t>
+          <t>technology research and development</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>worm</t>
+          <t>telnet</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>zero day</t>
+          <t>test and evaluation</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>zero-day attack</t>
+          <t>threat</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
+        <is>
+          <t>threat actor</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>threat agent</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>threat analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>threat assessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>threat model</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>threat vector</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>ticket</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>time to live</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>tiny fragment attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>tls</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>token ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>token-based access control</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>token-based devices</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>topology</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>traceroute (tracert.exe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>traffic light protocol</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transmission control protocol </t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">transport layer security </t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>triple des</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>triple-wrapped</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>trojan horse</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>trunking</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>trust</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>trusted ports</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>tunnel</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>udp</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>udp scan</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>unauthorized access</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>unicast</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">uniform resource identifier </t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">uniform resource locator </t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>unix</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>unprotected share</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>user contingency plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">user datagram protocol </t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">virtual private network </t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>virus</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>voice firewall</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">voice intrusion prevention system </t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>vpn</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>vulnerability assessment and management</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>war chalking</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>war dialer</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>war dialing</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>war driving</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>weakness</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>web of trust</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>web server</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>wep</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>white team</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>whois</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>windowing</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>windump</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wired equivalent privacy </t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>wireless application protocol</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>wiretapping</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>work factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>world wide web ("the web", www, w3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>worm</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>xinetd</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>zero day</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>zero-day attack</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
         <is>
           <t>zombies</t>
         </is>
